--- a/DMSNewVSale_2025-11-18_13-56.xlsx
+++ b/DMSNewVSale_2025-11-18_13-56.xlsx
@@ -155,6 +155,21 @@
     <t>30.3600</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>MINALAX 10 TABLETS</t>
   </si>
   <si>
@@ -171,9 +186,6 @@
   </si>
   <si>
     <t>4:0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>30.00</t>
@@ -1208,18 +1220,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1228,20 +1240,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1268,21 +1280,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>15</v>
@@ -1294,28 +1306,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>15</v>
@@ -1327,20 +1339,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1351,7 +1363,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1360,20 +1372,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1384,7 +1396,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1393,20 +1405,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1439,15 +1451,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>15</v>
@@ -1459,68 +1471,101 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="N25" s="13">
-        <v>658.13</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>81</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>82</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>50</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>83</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="26.25" customHeight="1">
+      <c r="N26" s="13">
+        <v>670.13</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>85</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>86</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>87</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1619,10 +1664,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
